--- a/data/sentiment/CNN Fear and Greed Index.xlsx
+++ b/data/sentiment/CNN Fear and Greed Index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\sentiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D99CB9-6BE3-4762-8AE6-C92659974CB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE735859-1844-4B05-879E-F75910EF63C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16920" yWindow="780" windowWidth="19080" windowHeight="20700" xr2:uid="{4DB5C0D8-73A9-F241-BE73-FF8556E11991}"/>
   </bookViews>
@@ -615,10 +615,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -693,36 +693,36 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1061,13 +1061,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF0C9EB-215E-3E47-AC49-550A89FC547A}">
-  <dimension ref="A1:E3855"/>
+  <dimension ref="A1:E3857"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F3845" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="F3839" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C3858" sqref="C3858"/>
+      <selection pane="bottomRight" activeCell="G3854" sqref="G3854"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -71248,7 +71248,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D3847" s="9" t="str">
-        <f t="shared" ref="D3847:D3855" si="61">IF(
+        <f t="shared" ref="D3847:D3854" si="61">IF(
  AND(
   B3847 &gt;= IF(
          YEAR(B3847)&gt;=2007,
@@ -71393,11 +71393,77 @@
         <v>UTC-5</v>
       </c>
       <c r="E3854" s="10">
-        <v>62.17</v>
+        <v>55.34</v>
       </c>
     </row>
     <row r="3855" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C3855" s="7"/>
+      <c r="A3855" s="9">
+        <v>46042</v>
+      </c>
+      <c r="B3855" s="9">
+        <v>46042</v>
+      </c>
+      <c r="C3855" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D3855" s="9" t="str">
+        <f t="shared" ref="D3855:D3857" si="62">IF(
+ AND(
+  B3855 &gt;= IF(
+         YEAR(B3855)&gt;=2007,
+         DATE(YEAR(B3855),3,14)-WEEKDAY(DATE(YEAR(B3855),3,14),1)+1 + TIME(2,0,0),
+         DATE(YEAR(B3855),4,7)-WEEKDAY(DATE(YEAR(B3855),4,7),1)+1 + TIME(2,0,0)
+       ),
+  B3855 &lt;  IF(
+         YEAR(B3855)&gt;=2007,
+         DATE(YEAR(B3855),11,7)-WEEKDAY(DATE(YEAR(B3855),11,7),1)+1 + TIME(2,0,0),
+         DATE(YEAR(B3855),10,31)-WEEKDAY(DATE(YEAR(B3855),10,31),1) + TIME(2,0,0)
+       )
+ ),
+ "UTC-4",
+ "UTC-5"
+)</f>
+        <v>UTC-5</v>
+      </c>
+      <c r="E3855" s="10">
+        <v>46.37</v>
+      </c>
+    </row>
+    <row r="3856" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3856" s="9">
+        <v>46043</v>
+      </c>
+      <c r="B3856" s="9">
+        <v>46043</v>
+      </c>
+      <c r="C3856" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D3856" s="9" t="str">
+        <f t="shared" si="62"/>
+        <v>UTC-5</v>
+      </c>
+      <c r="E3856" s="10">
+        <v>52.34</v>
+      </c>
+    </row>
+    <row r="3857" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3857" s="9">
+        <v>46044</v>
+      </c>
+      <c r="B3857" s="9">
+        <v>46044</v>
+      </c>
+      <c r="C3857" s="7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D3857" s="9" t="str">
+        <f t="shared" si="62"/>
+        <v>UTC-5</v>
+      </c>
+      <c r="E3857" s="10">
+        <v>51.8</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/data/sentiment/CNN Fear and Greed Index.xlsx
+++ b/data/sentiment/CNN Fear and Greed Index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\sentiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE735859-1844-4B05-879E-F75910EF63C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687566F7-CD4B-47A1-8B64-6678E60583E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16920" yWindow="780" windowWidth="19080" windowHeight="20700" xr2:uid="{4DB5C0D8-73A9-F241-BE73-FF8556E11991}"/>
   </bookViews>
@@ -1067,7 +1067,7 @@
       <pane xSplit="5" ySplit="3" topLeftCell="F3839" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G3854" sqref="G3854"/>
+      <selection pane="bottomRight" activeCell="E3861" sqref="E3861"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -71496,6 +71496,6 @@
     <hyperlink ref="C2" r:id="rId1" xr:uid="{91C9E8C5-DFBB-8342-A3CF-62E1CFDD7651}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/sentiment/CNN Fear and Greed Index.xlsx
+++ b/data/sentiment/CNN Fear and Greed Index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\AlternativeData\data\sentiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CDF256-F1A7-4717-AC57-423713B868F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3219E295-96FA-458E-B27E-803589E65517}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16920" yWindow="780" windowWidth="19080" windowHeight="20700" xr2:uid="{4DB5C0D8-73A9-F241-BE73-FF8556E11991}"/>
   </bookViews>
@@ -729,7 +729,7 @@
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="178" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="181" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
+    <numFmt numFmtId="179" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -820,13 +820,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1172,7 +1172,7 @@
       <pane xSplit="5" ySplit="3" topLeftCell="F3854" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q3860" sqref="Q3860"/>
+      <selection pane="bottomRight" activeCell="C3887" sqref="C3887"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
